--- a/src/main/webapp/assets/workbook/NPCs.xlsx
+++ b/src/main/webapp/assets/workbook/NPCs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Agile Programming\Excel speadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben.julian/IdeaProjects/Agile/2021_agile_tenebrae/src/main/webapp/assets/workbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49E0DDB3-1025-4682-9A44-D4E8B7155477}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4268B43D-F0DC-104D-A429-E35CE6C80FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD5B7A20-DD3F-4458-A53B-4541FE12C3DD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{AD5B7A20-DD3F-4458-A53B-4541FE12C3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="NPCs" sheetId="1" r:id="rId1"/>
@@ -34,64 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Race</t>
-  </si>
-  <si>
-    <t>Hit Points</t>
-  </si>
-  <si>
-    <t>Armor Class</t>
-  </si>
-  <si>
-    <t>Proficiency</t>
-  </si>
-  <si>
-    <t>Initiative</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Dexterity</t>
-  </si>
-  <si>
-    <t>Constitution</t>
-  </si>
-  <si>
-    <t>Intelligence</t>
-  </si>
-  <si>
-    <t>Wisdom</t>
-  </si>
-  <si>
-    <t>Charisma</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Traits</t>
-  </si>
-  <si>
-    <t>Background</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Jimmy</t>
   </si>
@@ -99,9 +42,6 @@
     <t>Non-Combat NPC</t>
   </si>
   <si>
-    <t>—</t>
-  </si>
-  <si>
     <t>Human</t>
   </si>
   <si>
@@ -193,22 +133,17 @@
   </si>
   <si>
     <t>Traveled and raised by parents as part of a circus, and was taught to hustle and negotiate in order to survive. (Could be a possible enemy or ally for party depending on encounter)</t>
+  </si>
+  <si>
+    <t>Sorcerer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -236,9 +171,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,101 +487,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5C1941-B784-4010-84A6-2C2249C64539}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="124.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="177.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="124.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="177.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1">
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>11</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>30</v>
+      </c>
+      <c r="K1">
+        <v>15</v>
+      </c>
+      <c r="L1">
+        <v>14</v>
+      </c>
+      <c r="M1">
+        <v>14</v>
+      </c>
+      <c r="N1">
+        <v>10</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -655,58 +589,58 @@
       <c r="G2">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2">
+        <v>8</v>
+      </c>
+      <c r="L2">
+        <v>14</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>12</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -714,126 +648,126 @@
       <c r="G3">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G5">
         <v>14</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -842,149 +776,90 @@
         <v>30</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L5">
         <v>14</v>
       </c>
       <c r="M5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N5">
+        <v>16</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>136</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6">
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5">
-        <v>13</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>30</v>
-      </c>
-      <c r="K6">
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
         <v>8</v>
       </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-      <c r="M6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>16</v>
-      </c>
-      <c r="O6">
-        <v>12</v>
-      </c>
-      <c r="P6">
-        <v>16</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>45</v>
-      </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>136</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>9</v>
-      </c>
-      <c r="L7">
-        <v>16</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
-      </c>
-      <c r="O7">
-        <v>17</v>
-      </c>
-      <c r="P7">
-        <v>19</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
